--- a/Flipswitches.xlsx
+++ b/Flipswitches.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="62">
   <si>
     <t>Name</t>
   </si>
@@ -326,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
@@ -443,9 +443,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
@@ -1085,10 +1082,7 @@
       <c r="B11" t="s" s="41">
         <v>10</v>
       </c>
-      <c r="F11" t="s" s="42">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s" s="43">
+      <c r="G11" t="s" s="42">
         <v>10</v>
       </c>
       <c r="H11"/>
@@ -1097,13 +1091,13 @@
       <c r="A12" t="s" s="1">
         <v>22</v>
       </c>
-      <c r="B12" t="s" s="45">
+      <c r="B12" t="s" s="44">
         <v>14</v>
       </c>
-      <c r="C12" t="s" s="46">
-        <v>10</v>
-      </c>
-      <c r="G12" t="s" s="47">
+      <c r="C12" t="s" s="45">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s" s="46">
         <v>10</v>
       </c>
       <c r="H12"/>
@@ -1112,13 +1106,13 @@
       <c r="A13" t="s" s="1">
         <v>23</v>
       </c>
-      <c r="B13" t="s" s="49">
+      <c r="B13" t="s" s="48">
         <v>14</v>
       </c>
-      <c r="C13" t="s" s="50">
-        <v>10</v>
-      </c>
-      <c r="G13" t="s" s="51">
+      <c r="C13" t="s" s="49">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s" s="50">
         <v>10</v>
       </c>
       <c r="H13"/>
@@ -1127,10 +1121,10 @@
       <c r="A14" t="s" s="3">
         <v>24</v>
       </c>
-      <c r="B14" t="s" s="53">
+      <c r="B14" t="s" s="52">
         <v>16</v>
       </c>
-      <c r="G14" t="s" s="54">
+      <c r="G14" t="s" s="53">
         <v>10</v>
       </c>
       <c r="H14"/>
@@ -1139,16 +1133,16 @@
       <c r="A15" t="s" s="1">
         <v>25</v>
       </c>
-      <c r="B15" t="s" s="56">
+      <c r="B15" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="C15" t="s" s="57">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s" s="58">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s" s="59">
+      <c r="C15" t="s" s="56">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s" s="57">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s" s="58">
         <v>10</v>
       </c>
       <c r="H15"/>
@@ -1157,10 +1151,10 @@
       <c r="A16" t="s" s="3">
         <v>26</v>
       </c>
-      <c r="B16" t="s" s="61">
+      <c r="B16" t="s" s="60">
         <v>16</v>
       </c>
-      <c r="G16" t="s" s="62">
+      <c r="G16" t="s" s="61">
         <v>10</v>
       </c>
       <c r="H16"/>
@@ -1169,16 +1163,16 @@
       <c r="A17" t="s" s="1">
         <v>27</v>
       </c>
-      <c r="B17" t="s" s="64">
+      <c r="B17" t="s" s="63">
         <v>14</v>
       </c>
-      <c r="D17" t="s" s="65">
-        <v>10</v>
-      </c>
-      <c r="F17" t="s" s="66">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s" s="67">
+      <c r="D17" t="s" s="64">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s" s="65">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s" s="66">
         <v>10</v>
       </c>
       <c r="H17"/>
@@ -1187,10 +1181,10 @@
       <c r="A18" t="s" s="1">
         <v>28</v>
       </c>
-      <c r="B18" t="s" s="69">
-        <v>10</v>
-      </c>
-      <c r="G18" t="s" s="70">
+      <c r="B18" t="s" s="68">
+        <v>10</v>
+      </c>
+      <c r="G18" t="s" s="69">
         <v>10</v>
       </c>
       <c r="H18"/>
@@ -1199,16 +1193,16 @@
       <c r="A19" t="s" s="1">
         <v>29</v>
       </c>
-      <c r="B19" t="s" s="72">
+      <c r="B19" t="s" s="71">
         <v>14</v>
       </c>
-      <c r="C19" t="s" s="73">
-        <v>10</v>
-      </c>
-      <c r="F19" t="s" s="74">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s" s="75">
+      <c r="C19" t="s" s="72">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s" s="73">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s" s="74">
         <v>10</v>
       </c>
       <c r="H19"/>
@@ -1217,13 +1211,13 @@
       <c r="A20" t="s" s="3">
         <v>30</v>
       </c>
-      <c r="B20" t="s" s="77">
-        <v>10</v>
-      </c>
-      <c r="F20" t="s" s="78">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s" s="79">
+      <c r="B20" t="s" s="76">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s" s="77">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s" s="78">
         <v>10</v>
       </c>
       <c r="H20"/>
@@ -1232,13 +1226,13 @@
       <c r="A21" t="s" s="1">
         <v>31</v>
       </c>
-      <c r="B21" t="s" s="81">
+      <c r="B21" t="s" s="80">
         <v>14</v>
       </c>
-      <c r="D21" t="s" s="82">
-        <v>10</v>
-      </c>
-      <c r="G21" t="s" s="83">
+      <c r="D21" t="s" s="81">
+        <v>10</v>
+      </c>
+      <c r="G21" t="s" s="82">
         <v>10</v>
       </c>
       <c r="H21"/>
@@ -1247,10 +1241,10 @@
       <c r="A22" t="s" s="1">
         <v>32</v>
       </c>
-      <c r="B22" t="s" s="85">
-        <v>10</v>
-      </c>
-      <c r="G22" t="s" s="86">
+      <c r="B22" t="s" s="84">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s" s="85">
         <v>10</v>
       </c>
       <c r="H22"/>
@@ -1259,10 +1253,10 @@
       <c r="A23" t="s" s="1">
         <v>33</v>
       </c>
-      <c r="B23" t="s" s="88">
-        <v>10</v>
-      </c>
-      <c r="G23" t="s" s="89">
+      <c r="B23" t="s" s="87">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s" s="88">
         <v>10</v>
       </c>
       <c r="H23"/>
@@ -1271,13 +1265,13 @@
       <c r="A24" t="s" s="1">
         <v>34</v>
       </c>
-      <c r="B24" t="s" s="91">
+      <c r="B24" t="s" s="90">
         <v>14</v>
       </c>
-      <c r="C24" t="s" s="92">
-        <v>10</v>
-      </c>
-      <c r="G24" t="s" s="93">
+      <c r="C24" t="s" s="91">
+        <v>10</v>
+      </c>
+      <c r="G24" t="s" s="92">
         <v>10</v>
       </c>
       <c r="H24"/>
@@ -1286,13 +1280,13 @@
       <c r="A25" t="s" s="1">
         <v>35</v>
       </c>
-      <c r="B25" t="s" s="95">
-        <v>10</v>
-      </c>
-      <c r="F25" t="s" s="96">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s" s="97">
+      <c r="B25" t="s" s="94">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s" s="95">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s" s="96">
         <v>10</v>
       </c>
       <c r="H25"/>
@@ -1301,13 +1295,13 @@
       <c r="A26" t="s" s="1">
         <v>36</v>
       </c>
-      <c r="B26" t="s" s="99">
-        <v>10</v>
-      </c>
-      <c r="F26" t="s" s="100">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s" s="101">
+      <c r="B26" t="s" s="98">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s" s="99">
+        <v>11</v>
+      </c>
+      <c r="G26" t="s" s="100">
         <v>10</v>
       </c>
       <c r="H26"/>
@@ -1316,13 +1310,13 @@
       <c r="A27" t="s" s="1">
         <v>37</v>
       </c>
-      <c r="B27" t="s" s="103">
-        <v>10</v>
-      </c>
-      <c r="F27" t="s" s="104">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s" s="105">
+      <c r="B27" t="s" s="102">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s" s="103">
+        <v>11</v>
+      </c>
+      <c r="G27" t="s" s="104">
         <v>10</v>
       </c>
       <c r="H27"/>
@@ -1331,13 +1325,13 @@
       <c r="A28" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="B28" t="s" s="107">
-        <v>10</v>
-      </c>
-      <c r="E28" t="s" s="108">
+      <c r="B28" t="s" s="106">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s" s="107">
         <v>16</v>
       </c>
-      <c r="G28" t="s" s="109">
+      <c r="G28" t="s" s="108">
         <v>10</v>
       </c>
       <c r="H28"/>
@@ -1346,13 +1340,13 @@
       <c r="A29" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="B29" t="s" s="111">
-        <v>10</v>
-      </c>
-      <c r="F29" t="s" s="112">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s" s="113">
+      <c r="B29" t="s" s="110">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s" s="111">
+        <v>11</v>
+      </c>
+      <c r="G29" t="s" s="112">
         <v>10</v>
       </c>
       <c r="H29"/>
@@ -1361,13 +1355,13 @@
       <c r="A30" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="B30" t="s" s="115">
-        <v>10</v>
-      </c>
-      <c r="E30" t="s" s="116">
+      <c r="B30" t="s" s="114">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s" s="115">
         <v>16</v>
       </c>
-      <c r="G30" t="s" s="117">
+      <c r="G30" t="s" s="116">
         <v>10</v>
       </c>
       <c r="H30"/>
@@ -1376,13 +1370,13 @@
       <c r="A31" t="s" s="3">
         <v>41</v>
       </c>
-      <c r="B31" t="s" s="119">
-        <v>10</v>
-      </c>
-      <c r="F31" t="s" s="120">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s" s="121">
+      <c r="B31" t="s" s="118">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s" s="119">
+        <v>11</v>
+      </c>
+      <c r="G31" t="s" s="120">
         <v>10</v>
       </c>
       <c r="H31"/>
@@ -1391,13 +1385,13 @@
       <c r="A32" t="s" s="3">
         <v>42</v>
       </c>
-      <c r="B32" t="s" s="123">
-        <v>10</v>
-      </c>
-      <c r="F32" t="s" s="124">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s" s="125">
+      <c r="B32" t="s" s="122">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s" s="123">
+        <v>11</v>
+      </c>
+      <c r="G32" t="s" s="124">
         <v>10</v>
       </c>
       <c r="H32"/>
@@ -1406,13 +1400,13 @@
       <c r="A33" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="B33" t="s" s="127">
+      <c r="B33" t="s" s="126">
         <v>14</v>
       </c>
-      <c r="D33" t="s" s="128">
-        <v>10</v>
-      </c>
-      <c r="G33" t="s" s="129">
+      <c r="D33" t="s" s="127">
+        <v>10</v>
+      </c>
+      <c r="G33" t="s" s="128">
         <v>10</v>
       </c>
       <c r="H33"/>
@@ -1421,13 +1415,13 @@
       <c r="A34" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="B34" t="s" s="131">
-        <v>10</v>
-      </c>
-      <c r="F34" t="s" s="132">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s" s="133">
+      <c r="B34" t="s" s="130">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s" s="131">
+        <v>11</v>
+      </c>
+      <c r="G34" t="s" s="132">
         <v>10</v>
       </c>
       <c r="H34"/>
@@ -1436,16 +1430,16 @@
       <c r="A35" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="B35" t="s" s="135">
+      <c r="B35" t="s" s="134">
         <v>14</v>
       </c>
-      <c r="D35" t="s" s="136">
-        <v>10</v>
-      </c>
-      <c r="F35" t="s" s="137">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s" s="138">
+      <c r="D35" t="s" s="135">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s" s="136">
+        <v>11</v>
+      </c>
+      <c r="G35" t="s" s="137">
         <v>10</v>
       </c>
       <c r="H35"/>
@@ -1454,16 +1448,16 @@
       <c r="A36" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="B36" t="s" s="140">
+      <c r="B36" t="s" s="139">
         <v>14</v>
       </c>
-      <c r="D36" t="s" s="141">
-        <v>10</v>
-      </c>
-      <c r="F36" t="s" s="142">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s" s="143">
+      <c r="D36" t="s" s="140">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s" s="141">
+        <v>11</v>
+      </c>
+      <c r="G36" t="s" s="142">
         <v>10</v>
       </c>
       <c r="H36"/>
@@ -1472,13 +1466,13 @@
       <c r="A37" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="B37" t="s" s="145">
+      <c r="B37" t="s" s="144">
         <v>14</v>
       </c>
-      <c r="C37" t="s" s="146">
-        <v>10</v>
-      </c>
-      <c r="G37" t="s" s="147">
+      <c r="C37" t="s" s="145">
+        <v>10</v>
+      </c>
+      <c r="G37" t="s" s="146">
         <v>10</v>
       </c>
       <c r="H37"/>
@@ -1487,13 +1481,13 @@
       <c r="A38" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="B38" t="s" s="149">
-        <v>10</v>
-      </c>
-      <c r="F38" t="s" s="150">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s" s="151">
+      <c r="B38" t="s" s="148">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s" s="149">
+        <v>11</v>
+      </c>
+      <c r="G38" t="s" s="150">
         <v>10</v>
       </c>
       <c r="H38"/>
@@ -1502,13 +1496,13 @@
       <c r="A39" t="s" s="1">
         <v>49</v>
       </c>
-      <c r="B39" t="s" s="153">
-        <v>10</v>
-      </c>
-      <c r="F39" t="s" s="154">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s" s="155">
+      <c r="B39" t="s" s="152">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s" s="153">
+        <v>11</v>
+      </c>
+      <c r="G39" t="s" s="154">
         <v>10</v>
       </c>
       <c r="H39"/>
@@ -1517,13 +1511,13 @@
       <c r="A40" t="s" s="1">
         <v>50</v>
       </c>
-      <c r="B40" t="s" s="157">
-        <v>10</v>
-      </c>
-      <c r="F40" t="s" s="158">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s" s="159">
+      <c r="B40" t="s" s="156">
+        <v>10</v>
+      </c>
+      <c r="F40" t="s" s="157">
+        <v>11</v>
+      </c>
+      <c r="G40" t="s" s="158">
         <v>10</v>
       </c>
       <c r="H40"/>
@@ -1532,10 +1526,10 @@
       <c r="A41" t="s" s="1">
         <v>51</v>
       </c>
-      <c r="B41" t="s" s="161">
-        <v>10</v>
-      </c>
-      <c r="G41" t="s" s="162">
+      <c r="B41" t="s" s="160">
+        <v>10</v>
+      </c>
+      <c r="G41" t="s" s="161">
         <v>10</v>
       </c>
       <c r="H41"/>
@@ -1544,10 +1538,10 @@
       <c r="A42" t="s" s="3">
         <v>52</v>
       </c>
-      <c r="B42" t="s" s="164">
+      <c r="B42" t="s" s="163">
         <v>53</v>
       </c>
-      <c r="G42" t="s" s="165">
+      <c r="G42" t="s" s="164">
         <v>10</v>
       </c>
       <c r="H42"/>
@@ -1556,10 +1550,10 @@
       <c r="A43" t="s" s="3">
         <v>54</v>
       </c>
-      <c r="B43" t="s" s="167">
+      <c r="B43" t="s" s="166">
         <v>53</v>
       </c>
-      <c r="G43" t="s" s="168">
+      <c r="G43" t="s" s="167">
         <v>10</v>
       </c>
       <c r="H43"/>
@@ -1568,13 +1562,13 @@
       <c r="A44" t="s" s="1">
         <v>55</v>
       </c>
-      <c r="B44" t="s" s="170">
-        <v>10</v>
-      </c>
-      <c r="F44" t="s" s="171">
-        <v>11</v>
-      </c>
-      <c r="G44" t="s" s="172">
+      <c r="B44" t="s" s="169">
+        <v>10</v>
+      </c>
+      <c r="F44" t="s" s="170">
+        <v>11</v>
+      </c>
+      <c r="G44" t="s" s="171">
         <v>10</v>
       </c>
       <c r="H44"/>
@@ -1583,13 +1577,13 @@
       <c r="A45" t="s" s="1">
         <v>56</v>
       </c>
-      <c r="B45" t="s" s="174">
+      <c r="B45" t="s" s="173">
         <v>16</v>
       </c>
-      <c r="D45" t="s" s="175">
-        <v>10</v>
-      </c>
-      <c r="G45" t="s" s="176">
+      <c r="D45" t="s" s="174">
+        <v>10</v>
+      </c>
+      <c r="G45" t="s" s="175">
         <v>10</v>
       </c>
       <c r="H45"/>
@@ -1598,13 +1592,13 @@
       <c r="A46" t="s" s="1">
         <v>57</v>
       </c>
-      <c r="B46" t="s" s="178">
+      <c r="B46" t="s" s="177">
         <v>14</v>
       </c>
-      <c r="C46" t="s" s="179">
-        <v>10</v>
-      </c>
-      <c r="G46" t="s" s="180">
+      <c r="C46" t="s" s="178">
+        <v>10</v>
+      </c>
+      <c r="G46" t="s" s="179">
         <v>10</v>
       </c>
       <c r="H46"/>
@@ -1613,13 +1607,13 @@
       <c r="A47" t="s" s="1">
         <v>58</v>
       </c>
-      <c r="B47" t="s" s="182">
+      <c r="B47" t="s" s="181">
         <v>14</v>
       </c>
-      <c r="C47" t="s" s="183">
-        <v>10</v>
-      </c>
-      <c r="G47" t="s" s="184">
+      <c r="C47" t="s" s="182">
+        <v>10</v>
+      </c>
+      <c r="G47" t="s" s="183">
         <v>10</v>
       </c>
       <c r="H47"/>
@@ -1628,19 +1622,19 @@
       <c r="A48" t="s" s="1">
         <v>59</v>
       </c>
-      <c r="B48" t="s" s="186">
+      <c r="B48" t="s" s="185">
         <v>14</v>
       </c>
-      <c r="D48" t="s" s="187">
+      <c r="D48" t="s" s="186">
         <v>16</v>
       </c>
-      <c r="E48" t="s" s="188">
-        <v>10</v>
-      </c>
-      <c r="F48" t="s" s="189">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s" s="190">
+      <c r="E48" t="s" s="187">
+        <v>10</v>
+      </c>
+      <c r="F48" t="s" s="188">
+        <v>11</v>
+      </c>
+      <c r="G48" t="s" s="189">
         <v>10</v>
       </c>
       <c r="H48" t="s">
@@ -1651,10 +1645,10 @@
       <c r="A49" t="s" s="1">
         <v>61</v>
       </c>
-      <c r="B49" t="s" s="192">
-        <v>10</v>
-      </c>
-      <c r="G49" t="s" s="193">
+      <c r="B49" t="s" s="191">
+        <v>10</v>
+      </c>
+      <c r="G49" t="s" s="192">
         <v>10</v>
       </c>
       <c r="H49"/>
@@ -1675,7 +1669,7 @@
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="C10:E10"/>
-    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B11:F11"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="B14:F14"/>
